--- a/Plant-Parasitic_Nematodes_William_Mai_Sup/MasterMetadata_001.xlsx
+++ b/Plant-Parasitic_Nematodes_William_Mai_Sup/MasterMetadata_001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\nemtode\general\Supplementary\Plant-Parasitic_Nematodes_William_Mai_Sup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C239ED26-E10D-4A0E-AFE0-50D09ABE7081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EBAA5E-41F5-4F3E-9EFB-5921AE5E259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1425" windowWidth="29835" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32955" yWindow="855" windowWidth="25845" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="359">
   <si>
     <t>identification_method</t>
   </si>
@@ -338,12 +338,971 @@
   <si>
     <t>Pratylenchoides</t>
   </si>
+  <si>
+    <t>Histotylenchus</t>
+  </si>
+  <si>
+    <t>27-Figure3.1-1.png</t>
+  </si>
+  <si>
+    <t>Light micrographs of some specimens from the genus Histotylenchus Siddiqi, 1971, illustrating the separation of the cuticle (black arrow) from the body (white arrow). A- separation of cuticle in lip region of female; B- separation of cuticle in lip region of male; C- separation of the cuticle from the body in midbody region of male; D- separation of the cuticle in tail region of male. Scale bars = 10 µm.</t>
+  </si>
+  <si>
+    <t>Landman, H.. “Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa.” (2011).</t>
+  </si>
+  <si>
+    <t>H. Landman</t>
+  </si>
+  <si>
+    <t>29-Figure3.2-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagram illustrating some of the morphological measurements used in the description of Histotylenchus Siddiqi, 1971. </t>
+  </si>
+  <si>
+    <t>32-Figure4.1-1.png</t>
+  </si>
+  <si>
+    <t>Line diagrams of Histotylenchus Sidddiqi, 1971. Female: A- anterior end with hemizonid (arrow a) and secretory-excretory pore (arrow b); B- lip region; C- habitus; D- lateral lines near vulva; E- section of anterior genital branch; F- vulva; G- tail. Male: H- tail. Scale bars = 10 µm</t>
+  </si>
+  <si>
+    <t>59-Figure4.10-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scanning electron microscope (SEM) micrographs of Histotylenchus mohalei Kleynhans, 1992. Female: A- lip region; B- en face view with four lips (white arrows); C- lip region with amphidal apertures (white arrow); D- anterior part with start of lateral lines; Elateral field with secretory-excretory pore opening (white arrow); F- four lateral lines with incomplete areolation of outer two bands and incomplete, irregular areolation on inner band; G- lateral view with irregularity in lateral lines in vulva region; H- double protruding epiptygma; I- ventral view of vulva; J- tail region; K- lateral field, inner lines ending in Vshaped pattern (white circle) and L- lateral field with lateral lines and areolation in tail region. Scale bars = 20 µm (D; F; G; J); 10 µm (K-L); 5 µm (A-B; H-I) and 2 µm (C; E).</t>
+  </si>
+  <si>
+    <t>Histotylenchus mohalei</t>
+  </si>
+  <si>
+    <t>60-Figure4.11-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scanning electron micrographs of male Histotylenchus mohalei Kleynhans, 1992: A- lip region; B- en face view showing four lips (white arrows); C- lateral field in midbody showing four lateral lines with complete areolation of outer two bands and incomplete, irregular areolations of inner band and D- tail region showing bursa and ending of different lateral lines. Ventral (white arrow a) and sub ventral (white arrow b) lateral lines end at bursa beginning, sub dorsal lateral line (white arrow c) ends in cloacal opening region and dorsal line (white arrow d) ends on tail tip. Scale bars = 20 µm (D); 10 µm (C) and 2 µm (A;B).</t>
+  </si>
+  <si>
+    <t>73-Figure4.12-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Line diagrams of Histotylenchus niveus sp. n. Female: A- whole specimen; Banterior end; C- lip region; E- lateral field in secretory-excretory pore region; F- lateral field in vulva region; G- tail, indicating lateral field; H- tail indicating postanal diverticulum; I- vulva; Jpart of anterior ovarium and K-M- habitus. Male: D- lip region; N- anterior of body; O-Phabitus; Q- tail and R- tail with lateral field. Scale bars = 20 µm (A) and 10 µm (B-R)</t>
+  </si>
+  <si>
+    <t>Histotylenchus niveus</t>
+  </si>
+  <si>
+    <t>74-Figure4.13-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light micrographs of Histotylenchus niveus sp. n. Female: A- habitus; B- lip region; C- vulva region; D- segment of anterior genital branch; E- tail region. Male: F- tail; Ghabitus and H- lip region. Scale bars = 100 µm (A; G) and 10 µm (B-F; H)</t>
+  </si>
+  <si>
+    <t>80-Figure4.14-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Line diagrams of Histotylenchus sp. 1. Female: A- anterior region; B- lip region; Cvulva; D- tail with postanal diverticulum and F- habitus. Male: E- lip region G- tail; H- tail with lateral field. Female: I- whole specimen. Scale bars = 20 µm (I) and 10 µm (A-H).</t>
+  </si>
+  <si>
+    <t>Histotylenchus sp.</t>
+  </si>
+  <si>
+    <t>84-Figure4.15-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Line diagrams of Histotylenchus sp. 2. Female: A- anterior part of body; B- lip region; C- habitus; D- whole specimen; E- start of lateral lines; F- lateral field in vulva region; Gvulva with epiptygma; H- tail region showing postanal diverticulum and I- tail region with lateral field. Scale bars = 20 µm (A-D) and 10 µm (E-I)</t>
+  </si>
+  <si>
+    <t>85-Figure4.16-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light micrographs of Histotylenchus sp. 2. Female: A- habitus (black arrow); B- lip region, C- vulva region and D- tail. Scale bars = 100 µm (A) and 10 µm (B-D). </t>
+  </si>
+  <si>
+    <t>Histotylenchus hedys</t>
+  </si>
+  <si>
+    <t>38-Figure4.3-1.png</t>
+  </si>
+  <si>
+    <t>Line diagrams of Histotylenchus hedys Kleynhans, 1975. Female: A- anterior end; B- lip region; C- lateral lines in secretory-excretory pore; D- lateral lines near vulva; Etail with lateral field; F- tail, showing postanal diverticulum; G- section of anterior ovarium; Hvulva; I- section of posterior ovarium. Male: J- anterior end; K- lip region; L- tail and M- tail, showing lateral lines. Scale bars = 10 µm</t>
+  </si>
+  <si>
+    <t>39-Figure4.4-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light micrographs of Histotylenchus hedys Kleynhans, 1975. Female: Ahabitus; B- lip region; C- vulva region; D- tail region showing anus (white arrow) and fascicule (black arrow). Male: E- habitus and F- tail region. Scale bars = 100 µm (A; E-F) and 10 µm (B-D).</t>
+  </si>
+  <si>
+    <t>Histotylenchus histoides</t>
+  </si>
+  <si>
+    <t>Line diagrams of Histotylenchus histoides Siddiqi, 1971. Female: A- anterior end; B- lip region; C- vulva region; D- tail with lateral field ending in V-shaped pattern; E- tail with lateral field ending in Y-shaped pattern; F- tail with postanal diverticulum; H-J- habitus; N- lateral field in vulva region and O- lateral field in secretory-excretory pore region. Male: Glip region; K- anterior end; L- tail region and M- tail showing lateral lines. Scale bars = 10 µm.</t>
+  </si>
+  <si>
+    <t>48-Figure4.6-1.png</t>
+  </si>
+  <si>
+    <t>Light micrographs of Histotylenchus histoides Siddiqi, 1971. Female: A- habitus; B- lip region; D- tail region with anus (white arrow) and phasmids (black arrow). Male: Chabitus; E- lip region and F- tail region. Scale bars = 100 µm (A; C) and 10 µm (B; D-F).</t>
+  </si>
+  <si>
+    <t>47-Figure4.5-1.png</t>
+  </si>
+  <si>
+    <t>56-Figure4.7-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Line diagrams of Histotylenchus mohalei Kleynhans, 1992. Female: A- anterior part; B- part of anterior ovarium; C- lip region; D- vulva; E- part of posterior ovarium; Flateral field in secretory-excretory pore region; G- lateral field in vulva region; H-I- tail with postanal diverticulum; J- tail indicating lateral field ending in V-shape; M-P- habitus. Male: K- lip region; L- anterior part; Q-U- gubernaculums; V- tail and W- tail indicating lateral field. Scale bars = 10 µm.</t>
+  </si>
+  <si>
+    <t>Light micrographs of Histotylenchus mohalei Kleynhans, 1992 paratype material. Female: A- habitus; B- lip region; C- fasciculi midbody; D-E- tail region. Male: F- habitus and G- tail region. Scale bars = 100 µm (A; F) and 10 µm (B-E; G)</t>
+  </si>
+  <si>
+    <t>57-Figure4.8-1.png</t>
+  </si>
+  <si>
+    <t> Light micrographs of current study populations (NCN) of Histotylenchus mohalei Kleynhans, 1992. Female: A- habitus; B- lip region; C- secretory-excretory pore (black arrow); D- vulva region; E- body anterior to vulva showing postanal diverticulum (black arrow); F-G- tail region; Male: H- habitus; I- lip region; J- tail region; K- dorsal view of spicule and L- spicule and gubernaculum with proximal end directed towards rear (black arrow). Scale bars = 100 µm (A; H) and 10 µm (B-G; I-L). </t>
+  </si>
+  <si>
+    <t>58-Figure4.9-1.png</t>
+  </si>
+  <si>
+    <t>114-FigureII-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Light micrographs of lip region of genus Histotylenchus Siddiqi, 1971. A- lip region hemispherical or anterior flattened marked off by a depression (depression indicated by arrows); B- lip region hemispherical and continuous with the body and C- lip region offset. Scale bar = 10 µm</t>
+  </si>
+  <si>
+    <t>116-FigureII-1.png</t>
+  </si>
+  <si>
+    <t>Light micrographs of Histotylenchus Siddiqi, 1971. Male: A- tail region with phasmids (black arrow a) and bursa (black arrow). Female: B- short, symmetrical rounded tail; C- long, symmetrical rounded tail; D- tail with phasmids (black arrow a) and lateral field lines ending in V-shaped pattern (black circle) and E- tail with phasmids (black arrow a) and lateral field lines ending in Y-shaped pattern (white circle). Scale bars = 10 µm.</t>
+  </si>
+  <si>
+    <t>123-FigureII-1.png</t>
+  </si>
+  <si>
+    <t>Fasciculi indicated by black arrows in A- Differential Interference Contrast (DIC) light micrograph of intestine of Histotylenchus mohalei Kleynhans, 1992 and B- tail of Histotylenchus sudanensis Siddiqi, 1977 (redrawn from Siddiqi, 1977). Scale bars as indicated.</t>
+  </si>
+  <si>
+    <t>Telotylenchus</t>
+  </si>
+  <si>
+    <t>Tylenchus-conicaudus-Bina-Chanu-Mohilal-Meitei-Manjur-Shah-2016_W640.jpg</t>
+  </si>
+  <si>
+    <t>Tylenchus conicaudus Bina Chanu, Mohilal Meitei &amp; Manjur Shah 2016.</t>
+  </si>
+  <si>
+    <t>Tylenchus conicaudus</t>
+  </si>
+  <si>
+    <t>Loukrakpam Bina Chanu</t>
+  </si>
+  <si>
+    <t>Telotylenchus manipurensis</t>
+  </si>
+  <si>
+    <t>Telotylenchus manipurensis Bina, Mohilal &amp; Manjur, 2016. Camera Lucida Drawings: E-Lateral Lines.</t>
+  </si>
+  <si>
+    <t>Telotylenchus-manipurensis-Bina-Mohilal-Manjur-2016-Camera-Lucida-Drawings_W640.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chanu, Loukrakpam &amp; Mohilal, Naorem. (2022). PLANT PARASITIC AND PREDATORY NEMATODES OF MANIPUR. </t>
+  </si>
+  <si>
+    <t>0001-2-Figure1-1.png</t>
+  </si>
+  <si>
+    <t> Telotylenchus baoulen.ri.r n. sp. Femelle: a: partie ant6rieure; b: tête; c, d: partie post6rieure; e: coupe transversale dans la partie m6diane et portions correspondantes du champ lateral ; f: detail de la gonade. Male : g: h: partie posterieure; i: spicules et différentes formes du gubernaculum.</t>
+  </si>
+  <si>
+    <r>
+      <t>Germani, Gaetano and Caspar Netscher. “Telotylenchus Baoulensis N. Sp. Et Trichotylenchus Rectangularis N. Sp. (Nematoda, Tylenchoidea).” </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF2E414F"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Nematologica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2E414F"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t> 15 (1969): 347-352.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G. Germani</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>C. Netscher</t>
+    </r>
+  </si>
+  <si>
+    <t>Telotylenchus baoulen</t>
+  </si>
+  <si>
+    <t>Trichotylenchus</t>
+  </si>
+  <si>
+    <t>Trichotylenchus gorganiensis</t>
+  </si>
+  <si>
+    <t>0002_figure.png</t>
+  </si>
+  <si>
+    <t>Diagnostic characters of Trichotylenchus gorganiensis n. sp. Female (B, C, E, F, H–J) and male (A, D, G). A, B: Entire body; C, D: Head and stylet; E: Vulva, part of reproductive system and lateral field; F: Anterior end and pharyngeal region; G–J: Posterior end. (Scale-bars: A, B = 100 µm; C, D, H–J = 10 µm; E–G = 20 µm).</t>
+  </si>
+  <si>
+    <r>
+      <t>Ghaderi, Reza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF777777"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Karegar, Akbar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF777777"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Miraeiz, Esmaeil</t>
+    </r>
+  </si>
+  <si>
+    <t>0003_figure.png</t>
+  </si>
+  <si>
+    <t>Diagnostic characters of Trichotylenchus gorganiensis n. sp. Female (A–F, H–J, L–N), male (G, H, K) and juvenile (H). A: Anterior end and pharyngeal region; B–D: Head and stylet; E: Pharyngeal basal bulb; F: Lateral field; G: Spicules and gubernaculum; H: Entire body; I–N: Posterior end. (Scale-bars: A = 20 µm; B–G, I–N = 10 µm; H = 100 µm).</t>
+  </si>
+  <si>
+    <t>Ghaderi, Reza, Karegar, Akbar &amp; Miraeiz, Esmaeil, 2018, Morphological characterization of Trichotylenchus gorganiensis n. sp. (Nematoda: Dolichodoridae) and photomicrographs of several other species of the subfamily Telotylenchinae Siddiqi, 1960, pp. 447-480 in Zootaxa 4526 (4) on page 452, DOI: 10.11646/zootaxa.4526.4.3, http://zenodo.org/record/3714071</t>
+  </si>
+  <si>
+    <t>Aphasrnatylenchus liberiensis</t>
+  </si>
+  <si>
+    <t>Fig. 5. Aphasmarylenchus straturatus female (A-F) and male (G-J) heads in laleral (above)) and in face (below) viewsj A-B,
+C-D, E-F, G-H, l-J: Laierai and in face views of lhe sarne specimen, respeclively (Scale bars = 1 pm).</t>
+  </si>
+  <si>
+    <t>Fig. 6. Aphasmarylenchus straturatus vlliva (A-E), male !ail (F), and spicules (G-H) (Scale bars: A-C, F = 10 J.lrrl; D, E, G,
+H = 1 I/m; in D and E arrowheads show che tubular scruccure of che epipcygrna).</t>
+  </si>
+  <si>
+    <t>Fig. 7. Aphasmatylenchus straturatus female wils (A-E) (Scaie bars = /0 pm).</t>
+  </si>
+  <si>
+    <t>Fig. 8. Aphasmatylenchus variabilisfemales. A-G: Heads in laierai (above) and in face (be/ow) views; A-S, C-D, E-F: Laierai and
+in face views of [he same speciemen, respeclively (Scale bars: A-G = / pm).</t>
+  </si>
+  <si>
+    <t>Fig. 9. Aphasmatylenchus variabilis females. A-D: Vit/var regiorI; E-G: Taûs (Scale bars: A-C, E-G = 10 j.1lrt; D = 1 IlIrt; in D
+arrowhead shows [he IUbular S[rllcwre of [he epip[ygma).</t>
+  </si>
+  <si>
+    <t>Fig. 10. Aphasmatylenchus variabilis males. A-D: J-!eads in lareral and in face views (A-B, C-D: laIerai and in face views of the sarne
+specimen, respectively); E-G: Tails; F-H: Spicules (Scale bars: A-D, F, H = 1 p/l/; E, G = 10 pIn).</t>
+  </si>
+  <si>
+    <t>Fundam. appl. NemalOl., 1998, 21 (2), 129-138 Description of Aphasmatylenchus liberiensis n. sp., and observations on the other species of the genus Aphasmatylenchus Sher, 1965 (Nematoda: Hoplolaimidae)  Pierre BAUJARD, Nicola VOVLAS, Danamou MOUNPORT and Bernard MARTINY</t>
+  </si>
+  <si>
+    <t>Aphasmarylenchus straturatus</t>
+  </si>
+  <si>
+    <t>Aphasmarylenchus spp.</t>
+  </si>
+  <si>
+    <t>Aphasmatylenchus variabilis</t>
+  </si>
+  <si>
+    <t>Aphasrnatylenchus</t>
+  </si>
+  <si>
+    <t>Fig. 1. Aphasrnatylenchus liberiensis n. sp. A: Female pharyngeal region; B: Lip regwn; C: Encire female; D: Aruerior body portion; E: Median and basal oesophageal bulb; F: Vulva; G: Tau (From Vovlas et al., 1991- courtesy Nemato1ogia mediterranea).</t>
+  </si>
+  <si>
+    <t>Fig. 2. Aphasrnatylenchus liberiensis n. sp. females. A, 8, C:
+Head, sublaceral and in face view, respecLively, D: Lacerai field
+al mid body; E. Vulva, ven/rai view, F: Tail, laierai view (Scale
+bars: A-C=l pm; D-F =la pm).</t>
+  </si>
+  <si>
+    <t>0001_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>0002_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>Fig. 3. Light mlcrographs of Aphasmatylenchus  liberiensis n.
+sp. A: Pharyngeal region; B: Amerior body porLion; C: Vulval
+region; D: Median and basal oesophageal bulb; E: Posterior
+body portion (Scale bar =25 pm).</t>
+  </si>
+  <si>
+    <t>0003_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>Fig. 4. Head patterns in the genus Aphasmatylenchus. A:
+A. strarurarus; B: A. variabilis; C: A. nigeriensis; D: A. liberiensis
+n. sp. (Scale bar = J pm; D: From Vau/as et al., 199J,
+COUrlesy Nemaralogia mediterranea).</t>
+  </si>
+  <si>
+    <t>0004_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>0005_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>0006_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>0007_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>0008_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>0009_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>0010_Aphasrnatylenchus.png</t>
+  </si>
+  <si>
+    <t>Carphodorus</t>
+  </si>
+  <si>
+    <t>Carphodorus bilineatus</t>
+  </si>
+  <si>
+    <t>Carphodorus bilineatus: (A} Female, entire body. (B) Female head. (C) Cross-scction
+of lateral field. (D) Female Lail. (E) Male tail. (F) Female, laleral field. (G) Spicules and gubernaculum.
+(H) face view or female. (After Colbran, 1965.)</t>
+  </si>
+  <si>
+    <t>0001_Carphodorus_bilineatus.png</t>
+  </si>
+  <si>
+    <t>Colbran, 1965</t>
+  </si>
+  <si>
+    <t>Morulaimus</t>
+  </si>
+  <si>
+    <t>Morulaimus arenicolus</t>
+  </si>
+  <si>
+    <t>Lip regions and lateral fields as seen by scanning electron microscopy:
+top left: Morulaimus arenicolus a; top right: M. sclerus ~; middle left:
+M. soldus a; middle right: Carphodorus bilineatus a; bottom left: lateral field
+of C. bilineatus a; bottom right : attachment of stylet muscles to stomatal rhabdioos,
+Ibipora lolii ~ (Interference contrast).</t>
+  </si>
+  <si>
+    <t>001_Morulaimus_arenicolus.png</t>
+  </si>
+  <si>
+    <t>Morulaimus gigas</t>
+  </si>
+  <si>
+    <t> Morulaimus gigas with four distinct lateral lines and outer bands areolated. (b) Aerolated outer band and tail elongated, cylindrical with rounded and annulated terminus of M. gigas. </t>
+  </si>
+  <si>
+    <t>001Morulaimus_gigas.png</t>
+  </si>
+  <si>
+    <t>Morulaimus gigas (Nematoda: Belonolaiminae) in southern and eastern Australia  L. Nambiar, M. Quader, J. Nobbs</t>
+  </si>
+  <si>
+    <t>L. Nambiar, M. Quader, J. Nobbs</t>
+  </si>
+  <si>
+    <t>Female Morulaimus gigas with conspicuous epiptygma and heavily sclerotised vagina vera. </t>
+  </si>
+  <si>
+    <t>002Morulaimus_gigas.png</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS ON THE MORPHOLOGY OF BELONOLAIMINAE  M. R. SAUER, M. W. BRZESKI and R. N. CHAPMAN</t>
+  </si>
+  <si>
+    <t>M. R. SAUER, M. W. BRZESKI and R. N. CHAPMAN</t>
+  </si>
+  <si>
+    <t>Dolichodorus</t>
+  </si>
+  <si>
+    <t>awl_nematode01.jpg</t>
+  </si>
+  <si>
+    <t>The head of an awl nematode in the genus Dolichodorus. Photograph by Jon Eisenback, Virginia Polytechnic Institute and State University.</t>
+  </si>
+  <si>
+    <t>Jon Eisenback</t>
+  </si>
+  <si>
+    <t>Virginia Polytechnic Institute and State University</t>
+  </si>
+  <si>
+    <t>Dolichodorus sp.</t>
+  </si>
+  <si>
+    <t>5442864-PPT.jpg</t>
+  </si>
+  <si>
+    <t>Jonathan D. Eisenback, Virginia Polytechnic Institute and State University, Bugwood.org</t>
+  </si>
+  <si>
+    <t>5441462-PPT.jpg</t>
+  </si>
+  <si>
+    <t>5441451-PPT.jpg</t>
+  </si>
+  <si>
+    <t>5442398-PPT.jpg</t>
+  </si>
+  <si>
+    <t>5441455-PPT.jpg</t>
+  </si>
+  <si>
+    <t>5441452-PPT.jpg</t>
+  </si>
+  <si>
+    <t>Macrotrophurus</t>
+  </si>
+  <si>
+    <t>Macrotrophurus_359fig2.jpg</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>Carta LK, Skantar AM, Handoo ZA. Molecular rDNA phylogeny of Telotylenchidae Siddiqi, 1960 and evaluation of tail termini. Journal of Nematology. 2010 Dec;42(4):359-369. PMID: 22736870; PMCID: PMC3380519.</t>
+  </si>
+  <si>
+    <t>Tail terminal drawings of Merliniidae sensu Ryss, 1993 and Telotylenchidae sensu Siddiqi, 2000 (syn. Tylenchorhynchidae Eliava, 1964). Drawings based on literature, web vouchers of the Powers lab at University of Nebraska, USDANC slides and Fig. 1. Coding of terminal tail thickening for very thick (≥ 20%) ++, for thick + (≥ 9%), and (+) for moderately thick terminal tail (≥ 4%) are given for the % ratio of hyaline tail length/tail length: Psilenchus hilarulus &lt; 1% - (Thorne, 1949), Pratylenchoides ritteri 22.5% ++ (Sher, 1970), Pratylenchoides magnicauda 19% +(+) (Baldwin et al., 1983), Merlinius microdorus 2.6% (+) (Geraert, 1966), Merlinius brevidens 3% (+) (Allen, 1955), Merlinius joctus 16% + (Thorne and Malek, 1968), Nagelus leptus 11 - 16 % + (Thorne, 1949, http://nematode.unl.edu/nagle4.jpg, Powers et al., 1983), Nagelus obscurus 4.3% (+)(Allen, 1955), Nagelus alpinus 3.7% (+) (Allen, 1955), Scutylenchus quadrifer 9.3 – 13.7% + (Loof, 1978), Amplimerlinius macrurus 20% ++ (USDANC slide G-3022), Amplimerlinius icarus 27% ++ (USDANC slide G3024), Tylenchorhynchus robustus 11.3% + (Thorne and Malek, 1968), Tylenchorhynchus leviterminalis 9.4 - 16% +, Tylenchorhynchus nudus 10.4 - 16.2% + (Loof, 1959), and Tylenchorhynchus claytoni 12.5 - 25% +(+), Macrotrophurus arbusticola 46.7% ++ (Loof, 1958), Bitylenchus dubius 4.4% (+), Telotylenchus ventralis 6% (+) (Loof, 1963), Sauertylenchus maximus 11 - 14% + (http://nematode.unl.edu/tymax15.jpg, Allen, 1955), Neodolichorhynchus microphasmis 7.7% (+) (Loof, 1959), Neodolichorhynchus lamelliferus 3.1% (+) (Allen, 1955), Quinisulcius acutus 4.5 - 17% + (Allen, 1955, http://nematode.unl.edu/quina9.jpg), Trophurus imperialis 30% ++ (Loof, 1956), Trophurus minnesotensis 21% ++ (Caveness, 1958), Trophurus sculptus 25% ++ (Loof, 1956), Tylenchorhynchus cf. robustus 7% (+) (http://nematode.unl.edu/tylerob3.jpg), Paratrophurus sp. 13% + (http://nematode.unl.edu/patrop.htm). Scale Bar = 10 μm.</t>
+  </si>
+  <si>
+    <t>Macrotrophurus sp.</t>
+  </si>
+  <si>
+    <t>Cacopaurus</t>
+  </si>
+  <si>
+    <t>Cacopaurus-pestis-A-Anterior-part-of-young-juvenile-B-Lateral-field-of-female-in_W640.jpg</t>
+  </si>
+  <si>
+    <t>Cacopaurus pestis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A: Anterior part of young juvenile; B: Lateral field of female in vulval region; C, D: Young females; E, F: Adult females; G: Female head in face view; H: Anterior part of testis; I: Anterior part of male; J: Posterior part of male; K: Spicules and gubernaculum. After Thorne (1943), courtesy Proceedings of the Helminthological Society of Washington, and Franklin (1974), courtesy CABI. </t>
+  </si>
+  <si>
+    <t>CABI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talavera, M. &amp; Vera, Ignacio. (2012). Criconematoidea. </t>
+  </si>
+  <si>
+    <t>Hoplotylus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoplotylus femina s'Jacob 1960 from Juchitepec, Mexico. A, C-E, G) Female. B, F) Male. A) Entire body. B) Entire body. C) Anterior body region. D) Spermatheca filled with sperm. E) Posterior body region. F) Anterior body region. G) Tail shape variations.  </t>
+  </si>
+  <si>
+    <t>Hoplotylus-femina-sJacob-1960-from-Juchitepec-Mexico-A-C-E-G-Female-B-F-Male-A_W640.jpg</t>
+  </si>
+  <si>
+    <t>Hoplotylus femina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM micrographs of Hoplotylus femina s'Jacob 1960 from Juchitepec, Mexico. A-D) Female. E) Male. A) Face view pattern. Note the submedian lip sectors fused together and with the oral disc, and lacking the notch on the outer margins. B) En face view of vulva. C) Areolated lateral field. D) Pointed tail terminus. E) Tail.  </t>
+  </si>
+  <si>
+    <t>SEM-micrographs-of-Hoplotylus-femina-sJacob-1960-from-Juchitepec-Mexico-A-D-Female_W640.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franco-Navarro, Francisco &amp; Vera, Ignacio. (2006). Characterization of a Mexican population of Hoplotylus femina s'Jacob, 1960 associated with Quercus crassipes Humb. &amp; Bonpl.. Nematropica. 36. 173-180. </t>
+  </si>
+  <si>
+    <t>Acontylus</t>
+  </si>
+  <si>
+    <t>Radopholoides</t>
+  </si>
+  <si>
+    <t>Radopholoides similis</t>
+  </si>
+  <si>
+    <t>Radopholus_similis06.jpg</t>
+  </si>
+  <si>
+    <t>Radopholus similis, Female (A) and male (B). Figure used with permission from Mohammed R. Siddiqi. CABI Bioscience.</t>
+  </si>
+  <si>
+    <t>Radopholus similis male head (A) and tail (B). Photograph by Nicholas Sekora, University of Florida, Entomology and Nematology Department.</t>
+  </si>
+  <si>
+    <t>Radopholus_similis07.jpg</t>
+  </si>
+  <si>
+    <t> Radopholus similis female head region (A) and full body with vulva [v] near midbody (B). Photograph by Nicholas Sekora, University of Florida, Entomology and Nematology Department.</t>
+  </si>
+  <si>
+    <t>Radopholus_similis08.jpg</t>
+  </si>
+  <si>
+    <t>Rotylenchoides</t>
+  </si>
+  <si>
+    <t>Ditylenchus</t>
+  </si>
+  <si>
+    <t>Subanguina</t>
+  </si>
+  <si>
+    <t>Anguina</t>
+  </si>
+  <si>
+    <t>Trophurus</t>
+  </si>
+  <si>
+    <t>Tylodorus</t>
+  </si>
+  <si>
+    <t>Caloosia</t>
+  </si>
+  <si>
+    <t>Caloosia-female-body-A-tail-B-and-head-C_W640.jpg</t>
+  </si>
+  <si>
+    <t>Caloosia female body (A), tail (B), and head (C).  </t>
+  </si>
+  <si>
+    <t>Brachydorus</t>
+  </si>
+  <si>
+    <t>Brachydorus-kazirangai-n-sp-A-F-Female-A-Anterior-end-B-Face-view-C-Lateral_W640.jpg</t>
+  </si>
+  <si>
+    <t>Brachydorus kazirangai n. sp.-A-F : Female. A : Anterior end; B : Face view; C : Lateral field (oesophageal region); D : Lateral field (midbody); E : Vulva; F : Anal region.-G-I : Juveniles. G : Face view; H : Anterior end; I : Lateral field (oesophageal region).-J-M : Male posterior region. J : Ventral view; K : Latera-ventral view; L : Posterior end-on view; M : Cloacal region. (Bars equivalent : A, D, F, f-L = 10 J.an; B, C, E, H, M = 5 pm; G = 3,um,)</t>
+  </si>
+  <si>
+    <t>Fig-Brachydorus-kazirangain-sp-A-Enrire-female-B-Entire-male-C-Anterior-region_W640.jpg</t>
+  </si>
+  <si>
+    <t>Brachydorus kazirangain. sp.-A: Enrire female; B: Entire male; C: Anterior region; D: Oesonhageal region; E: Female gonad (anterior); F : Female tail; G : Male tail.</t>
+  </si>
+  <si>
+    <t>Wasim Ahmad</t>
+  </si>
+  <si>
+    <t>Caloosia sp.</t>
+  </si>
+  <si>
+    <t>Brachydorus sp.</t>
+  </si>
+  <si>
+    <t>G025S1.jpg</t>
+  </si>
+  <si>
+    <t>Brachydorus tenuis Female: A. Entire, B. Anterior, C. Head, D. TS lip region ï¿½ anterior and base, E. Posterior.  Male: F. Head, G. Posterior, lateral view. H. Posterior, ventral view. From De Guiran and Germani (1968).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarisodera </t>
+  </si>
+  <si>
+    <t>Atalodera </t>
+  </si>
+  <si>
+    <t>Atalodera sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photomicrographs of anterior regions of second stage juveniles. A, B: Atalodera carolynae (CD882); C, D: Atalodera sp. A (CD1355); E, F: Atalodera sp. B (CD922); G, H: Atalodera sp. B (CD837); I: Rhizonemella sp. A (CD875); J, K: Rhizonemella sp. B (CD780); L: Rhizonemella sp. C (CD890); M, N: Meloidodera mexicana (CD238); O, P: M. floridensis (CD1957); Q, R: Cryphodera sp. D (CD2310). (Scale bar = 20 μm.) </t>
+  </si>
+  <si>
+    <t>Photomicrographs-of-anterior-regions-of-second-stage-juveniles-A-B-Atalodera-carolynae_W640.jpg</t>
+  </si>
+  <si>
+    <t>Photomicrographs-of-posterior-regions-of-second-stage-juveniles-A-B-Atalodera_W640.jpg</t>
+  </si>
+  <si>
+    <t>Photomicrographs of posterior regions of second-stage juveniles. A, B: Atalodera carolynae (CD882); C, D: Atalodera sp. A (CD1355); E, F: Atalodera sp. B (CD922); G, H: Atalodera sp. B (CD837); I: Rhizonemella sp. A (CD875); J, K: Rhizonemella sp. B (CD780); L: Rhizonemella sp. C (CD890); M, N: Meloidodera mexicana (CD238); O, P: M. floridensis (CD1957); Q, R: Cryphodera sp. D (CD2310). (Scale bar = 20 μm.) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subbotin, Sergei &amp; Akanwari, Jerry &amp; Nguyen, Chau &amp; Vera, Ignacio &amp; Chitambar, John &amp; Inserra, Renato N &amp; Chizhov, Vladimir. (2017). Molecular characterisation and phylogenetic relationships of cystoid nematodes of the family Heteroderidae (Nematoda: Tylenchida). Nematology. 19. 10.1163/15685411-00003107. </t>
+  </si>
+  <si>
+    <t>Jerry Akanwari</t>
+  </si>
+  <si>
+    <t>Cryphodera</t>
+  </si>
+  <si>
+    <t>Photomicrographs of Cryphodera sp. A (A: J2 anterior end, E: J2 tail, I: male anterior end, J: male posterior end showing phasmid in lateral position), Cryphodera sp. B (B: J2 anterior end, F: J2 tail), Cryphodera sp. C (C: J2 anterior end, G: J2 tail, K: J2 lateral field), Cryphodera pop. 2 (D: J2 anterior end, H: J2 tail, L: J2 tail region showing large phasmid). (Scale bar = 15 µm).</t>
+  </si>
+  <si>
+    <t>Photomicrographs-of-Cryphodera-sp-A-A-J2-anterior-end-E-J2-tail-I-male-anterior_W640.jpg</t>
+  </si>
+  <si>
+    <t> Sergei A Subbotin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyen, Chau &amp; Sturhan, Dieter &amp; Subbotin, Sergei. (2011). Studies on the occurrence and diversity of Heteroderidae and Meloidogynidae (Nematoda: Tylenchida) in natural forests of Vietnam. Russian Journal of Nematology. 19. 159-172. </t>
+  </si>
+  <si>
+    <t>Meloidodera floridensis</t>
+  </si>
+  <si>
+    <t>Meloidodera</t>
+  </si>
+  <si>
+    <t>Cryphodera sp</t>
+  </si>
+  <si>
+    <t>Meloidodera floridensis, female development. A. Third-stage larva; B. Head of third-stage larva, lateral; C. Tail of third-stage larva, lateral; D. Tail of third-stage larva, ventral; E, F. Gonads of third-stage larvae; Go Head of fourth-stage larva, lateral; H. Posterior part of fourth-stage larva, lateral; I. Posterior part of fourth-stage larva, ventral; J. Gonads of fourth-stage larva; K. Fourth-stage larva</t>
+  </si>
+  <si>
+    <t>Meloidodera-8-Figure3-1.png</t>
+  </si>
+  <si>
+    <t>Meloidodera floridensis, male deve lopment - second to fou r th stage. A. Anter ior por t ion of second-stage larva; B. Tail o f second-stage larva; C. Third-stage male larva wi thin second-mol t cuticle; D. Tail o f third-stage male larva wi thin second-mol t cuticle; E, F. Gonads of third-stage male larvae; G. Posterior part of third-molt male larva within super imposed cuticles; H. Four th-s tage male larva, anterior part.</t>
+  </si>
+  <si>
+    <t>Meloidodera-9-Figure3-1.png</t>
+  </si>
+  <si>
+    <t>Esser, R. P., William Mat and Richard A. Rohde. “Postembryogenesis of Meloidodera floridensis with Emphasis on the Development of the Male I.” (2001).</t>
+  </si>
+  <si>
+    <r>
+      <t>R. P. Esser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>W. Mat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>R. A. Rohde</t>
+    </r>
+  </si>
+  <si>
+    <t>Nacobbus</t>
+  </si>
+  <si>
+    <t>Vermiform second stage juvenile (J2) of the citrus nematode, Tylenchulus semipenitrans (Cobb, 1913). Photograph by Nicholas S. Sekora, University of Florida.</t>
+  </si>
+  <si>
+    <t>Tylenchulus semipenetrans</t>
+  </si>
+  <si>
+    <t>Nicholas S. Sekora</t>
+  </si>
+  <si>
+    <t>Tylenchulus</t>
+  </si>
+  <si>
+    <t>Fig. 1. Tylenchulus musicola sp. n. A: Entire body of second-stage juvenile; B, C, F, G: Posterior body portion of second-stage juveniles; D: Anterior body portion of second-stage juvenile; E: Female; H: Entire body of male; I: Tail of male. (Scale bars: A, E-I = 20 μm; B-D =10μm.)</t>
+  </si>
+  <si>
+    <t>Fig. 2. Light micrographs of females of Tylenchulus musicola sp. n. A: Entire body; B, C: Head region; D-F: Vulva and tail region</t>
+  </si>
+  <si>
+    <t>Fig. 3. Light micrographs of second-stage juveniles of Tylenchulus species. A: Entire body; B-F: Head; G-K: Posterior body portion and tail; A, B, G: T. musicola sp. n.; C, H: T. semipenetrans;D,I:T. furcus;E,J:T. graminis;F,K:T. palustris.</t>
+  </si>
+  <si>
+    <t>Description of Tylenchulus musicola sp.n.(Nematoda: Tylenchulidae) from banana in Iran with molecular phylogeny and characterisation of species of Tylenchulus Cobb, 1913  Zahra TANHA MAAFI1, Majid AMANI2,JasonD.STANLEY3,RenatoN.INSERRA3, Esther VAN DEN BERG4 and Sergei A. SUBBOTIN</t>
+  </si>
+  <si>
+    <t>Fig.4. Lightmicrographs of posterior body portion and tail terminus of second-stage juveniles of Tylenchulus species.A:T.musicola sp.n.;B:T.semipenetrans; C:T.furcus;D:T.graminis;E:T.palustris.</t>
+  </si>
+  <si>
+    <t>Tylenchulus_001.png</t>
+  </si>
+  <si>
+    <t>Tylenchulus_002.png</t>
+  </si>
+  <si>
+    <t>Tylenchulus_003.png</t>
+  </si>
+  <si>
+    <t>Tylenchulus_004.png</t>
+  </si>
+  <si>
+    <t>Tylenchulus musicola</t>
+  </si>
+  <si>
+    <t>Tylenchulus sp.</t>
+  </si>
+  <si>
+    <t>Sphaeronema sasseri</t>
+  </si>
+  <si>
+    <t>Sphaeronema</t>
+  </si>
+  <si>
+    <t>FIG. 4. Micrographs of second-stage juvenile of Sphaeronema sasseri n. sp. A) SEM of face View. B) SEM of lateral view. C) Light micrograph of head (lateral). D) Light micrograph of tail (lateral). E) SEM of excised styler. </t>
+  </si>
+  <si>
+    <t>Sphaeronema_5-Figure4-1.png</t>
+  </si>
+  <si>
+    <t>Sphaeronema sasseri n. sp. (Tylenchulidae), a Nematode Parasitic on Fraser Fir and Red Spruce.  J. Eisenback, K. M. Hartman</t>
+  </si>
+  <si>
+    <r>
+      <t>J. Eisenback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>K. M. Hartman</t>
+    </r>
+  </si>
+  <si>
+    <t>Molecular and morphological characterisation of Sphaeronema alni Turkina &amp; Chizhov, 1986 (Nematoda: Sphaeronematidae) from Spain compared with a topotype population from Russia</t>
+  </si>
+  <si>
+    <t>J. E. Palomares-Rius, N. Vovlas, +6 authors P. Castillo</t>
+  </si>
+  <si>
+    <t>Fig. 1. Light micrographs of Sphaeronema alni from Spain. A: Coiled second-stage juveniles (J2) partially released from egg shell; B: Entire J2 body; C, D: Anterior and posterior body portions of J2 with anus (arrow); E-G: Anterior body portion of J2 showing DGO, pharynx and stylet; H, J: Swollen female; I: Excretory pore of adult female (arrow); K: Detail of excretory pore; L, M: Female anterior region and terminal cone. (Scale bars: A, B, H, I, J = 50 μm; C-G, K-M = 20 μm.)</t>
+  </si>
+  <si>
+    <t>Sphaeronema alni</t>
+  </si>
+  <si>
+    <t>Sphaeronema_alni_4-Figure1-1.png</t>
+  </si>
+  <si>
+    <t>Fig. 2. SEM micrographs of Sphaeronema alni from Spain. A-C: Anterior, entire body and vulval region of adult female. Note the circumoral elevation (A: arrow); D, G, I: Lateral, en face and profile views of second-stage juvenile (J2); E: J2 anus (arrow); F: Detail of annulation and anus position; H: Detail of lateral fields of J2. (Scale bars: A, D, G-I = 5 μm; B = 100 μm; C, E = 20 μm; F = 10 μm.)</t>
+  </si>
+  <si>
+    <t>Sphaeronema_alni_5-Figure1-1.png</t>
+  </si>
+  <si>
+    <t>Fig. 3. Sphaeronema alni. A-D: Second-stage juvenile. A: Pharyngeal region; B: Entire body; C, D: Tail region. E-I: Mature female. E, F: Entire body; G: Pharyngeal region; H: Ventral view of vulval region; I: Adult parasitising chestnut root.</t>
+  </si>
+  <si>
+    <t>Sphaeronema_alni_6-Figure3-1.png</t>
+  </si>
+  <si>
+    <t>Nothotylenchus_JON_493268275.2017.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothotylenchus </t>
+  </si>
+  <si>
+    <t>FIG. 1. Line drawing of Nothotylenchus phoenixae n. sp. A. Female entire body; B. Lip region; C. Pharyngeal region; D. Lateral field at midbody;
+E. Male entire body; F. Vulval region to posterior body; G. Male posterior body; H. Female tail region. (A, E, F = 30 mm, B, C, G, H = 15 mm, and
+D = 10 mm).</t>
+  </si>
+  <si>
+    <t>Description of a New Anguinid Nematode, Nothotylenchus phoenixae
+n. sp. (Nematoda: Anguinidae) Associated with Palm Date Trees and Its
+Phylogenetic Relations within the Family Anguinidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEHRAB ESMAEILI, RAMIN HEYDARI,
+AND WEIMIN YE
+</t>
+  </si>
+  <si>
+    <t>FIG. 2. Light micrographs of Nothotylenchus phoenixae n. sp. A to C. Female anterior body region (arrows showing median bulb of pharynx);
+D. Lateral field at mid-body; E. Pharyngeal basal bulb region; F. Vulval region showing vulva (arrow) and postvulval uterine sac (arrowhead);
+G. Female tail region; H, I. Male posterior body; J. Spicules. (All scale bars = 10 mm except I = 20 mm.)</t>
+  </si>
+  <si>
+    <t>Nothotylenchus phoenixae</t>
+  </si>
+  <si>
+    <t>JON_493268275.2017.jpg</t>
+  </si>
+  <si>
+    <t>Rhadinaphelenchus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giblin-Davis, Robin &amp; Mundo-Ocampo, Manuel &amp; Baldwin, J &amp; Gerber, Karin &amp; Griffith, R.. (1989). Observations on the morphology of the red ring nematode, Rhadinaphelenchus cocophilus (Nemata : Aphelenchoididae). </t>
+  </si>
+  <si>
+    <t>Rhadinaphelenchus cocophilus</t>
+  </si>
+  <si>
+    <t>Fig. 1. Rhadinaphelenchus cocophilus. Diagramatic representation of the en face pattern. LD = Labial disc; OA = oral aperture; LL = lateral lip sectors; SD, SV = subdorsal and subventrallip sectors; AA = amphid aperture; CP = cephalic papilla; LS = lateral cephalic sector; SDS, SVS = subdorsal and subventral cephalic sectors.</t>
+  </si>
+  <si>
+    <t>001_Rhadinaphelenchus.png</t>
+  </si>
+  <si>
+    <t>Fig. 2. Rhadinaphelenchus cocophilus. Scanning electron micrographs of the anterior end. A : En face view of adult female. Arrows = cephalic papillae; S = secretion?; B : En face view of adult male; C : Nearly lateral view of adult female showing one amphid aperture; D : Lateral view of adult male (same scale as C).</t>
+  </si>
+  <si>
+    <t>002_Rhadinaphelenchus.png</t>
+  </si>
+  <si>
+    <t>Fig. 3. Rhadinaphelenehus eoeophilus.
+Light photomicrographs of the spicules and posterior end of three different males
+(Bar = 10 l-tm).</t>
+  </si>
+  <si>
+    <t>003_Rhadinaphelenchus.png</t>
+  </si>
+  <si>
+    <t>Fig. 4. Rhadinaphelenchus cocophilus. Scanning electron micrographs of the posterior region of adult males. A : Subvcntral view of caudal region; C = cloacal opening; arrows = caudal papillae; CA = caudal alae; B : Enlarged ventral view from A showing position and detail of preanal papillae (arrows) and cloacal opening; C : Subventral view of postana! papillae (arrows) and subdorsal view of caudal alae; D : Ventral view of postanal papillae; E : Posterior view of the tips of the protracted spicules showing areas of separation and overlap (0); Enlargement of G; F : Nearly anterior ventro-Iateral view of the tips of the protractcd spicules showing areas of separation and overlap (0); Scale same as E; G : Dorso-lateral view of tail with the tips of the protracted spicules</t>
+  </si>
+  <si>
+    <t>004_Rhadinaphelenchus.png</t>
+  </si>
+  <si>
+    <t>Fig. 5. Rhadinaphelenchus cocophilus. Scanning electron micrographs of the vulval and posterior region of adult females. A : Ventral view of the vulval slit; V = vulval slit; B : Lateral view of the vulval slit; C : Midbody region with four lines in the lateral field;
+D : Lateral view of tail; A = anus; E : Subventral view of anus.</t>
+  </si>
+  <si>
+    <t>005_Rhadinaphelenchus.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barsi, László &amp; De Luca, Francesca. (2017). Morphological and molecular characterisation of Paralongidorus francolambertii sp. n. (Nematoda: Longidoridae) from Serbia. Nematology. 19. 10.1163/15685411-00003080. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralongidorus francolambertii </t>
+  </si>
+  <si>
+    <t>Paralongidorus</t>
+  </si>
+  <si>
+    <t>001_BarsiandDeLuca_2017.jpg</t>
+  </si>
+  <si>
+    <t>Fig. 1. Paralongidorus francolambertii sp. n. Female: A: Anterior region; B: Anterior end showing amphidial fovea and cuticular collar
+(lateral view); C: Lip region showing cephalic lobes and cuticular collar (redrawn from SEM micrograph); D: Muscular bulb; E: Detail
+of anterior genital branch; K: Tail. Male: J: Posterior region. Juveniles: F-I: Posterior region, J1-J4, respectively. (Scale bar: A, B,
+D-K = 20 μm; C = 2 μm.)</t>
+  </si>
+  <si>
+    <t>002_BarsiandDeLuca_2017.jpg</t>
+  </si>
+  <si>
+    <t>Fig. 2. Photomicrographs of Paralongidorus francolambertii sp. n. (female). A: Pharyngeal region; B, C: Anterior region; D: Anterior
+end, dorso-ventral view showing amphidial fovea; E-I: Anterior end, lateral view showing amphidial fovea (af), cuticular collar (cc),
+and cephalic lobe (cl); J: Detail of odontostyle (ost) and odontophore (oph); K: Cylindrical basal bulb (cylindrus) of pharynx in two
+optical planes showing nuclei of dorsal and subventral glands (D = dorsal nucleus; glandularium = distance between dorsal nucleus and
+posterior margin of cylindrus – signified by horizontal black lines; AS1 = anterior subventral nucleus, first; AS2 = anterior subventral
+nucleus, second); L-S: Tail region; T: Anterior genital branch. (Scale bars: A = 50 μm; B-T = 20 μm.)</t>
+  </si>
+  <si>
+    <t>003_BarsiandDeLuca_2017.jpg</t>
+  </si>
+  <si>
+    <t>Fig. 3. Photomicrographs of Paralongidorus francolambertii sp. n. (male). A: Anterior region; B, C: Anterior end, lateral view showing
+cephalic lobes (cl), amphidial fovea (af), and cuticular collar (cc); D-I, L: Tail region; J-K: Posterior body region; M: Anterior and
+posterior testis (partial); N: Testis with germinative zone (gz) and maturation zone (mz). (Scale bars: A-L, N = 20 μm; M = 100 μm.)</t>
+  </si>
+  <si>
+    <t>004_BarsiandDeLuca_2017.jpg</t>
+  </si>
+  <si>
+    <t>Fig. 4. Photomicrographs of Paralongidorus francolambertii sp. n. (juvenile stages J1-J4). A-D: Anterior region of J1, J2, J3 and J4,
+respectively; E, F: Anterior end of J4 showing cephalic lobe (cl), amphidial fovea (af), and cuticular collar (cc); G-M: Tail of J1, J2, J3
+and J4, respectively. (Scale bars = 10 μm.)</t>
+  </si>
+  <si>
+    <t>005_BarsiandDeLuca_2017.jpg</t>
+  </si>
+  <si>
+    <t>Fig. 5. SEM photomicrographs of Paralongidorus francolambertii sp. n. A-C: Female head region in ventrolateral and lateral view
+showing cuticular collar (cc), cephalic lobe (cl), amphidial aperture (aa), neck (n), and subcephalic furrow (sf); D: Female tail in lateral
+view (a = anal opening); E-J: Male tail in lateral view (E), male posterior region in various positions (F-H), latero-ventral view – detail
+(I), ventral view – detail (J) (as = adanal supplements; mr = midventral ridge; ms = midventral supplements; sg = subventral groove).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,6 +1476,62 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E3743"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E414F"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF2E414F"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF777777"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -873,14 +1888,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -889,9 +1901,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1248,520 +2270,2112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="8" customWidth="1"/>
-    <col min="2" max="6" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="8" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9" style="8"/>
-    <col min="14" max="14" width="30.5" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23.125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="13.75" style="8" customWidth="1"/>
-    <col min="18" max="18" width="15.375" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="24.125" style="8" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="8" customWidth="1"/>
-    <col min="21" max="21" width="22.25" style="8" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16" style="5" customWidth="1"/>
+    <col min="2" max="6" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="5"/>
+    <col min="14" max="14" width="30.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="23.125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="13.75" style="5" customWidth="1"/>
+    <col min="18" max="18" width="15.375" style="5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="24.125" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="5" customWidth="1"/>
+    <col min="21" max="21" width="22.25" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="T19" s="5" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T59" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T60" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T61" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T62" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T63" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G64" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T64" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="T65" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="7:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G66" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="T66" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G69" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G70" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G71" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G72" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G73" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G74" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G75" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G76" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G77" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G78" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G79" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G80" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G81" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G82" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G83" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="P83" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G84" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G85" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="T85" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G86" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G87" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="N87" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="T87" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G88" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="P88" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G89" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P89" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="T89" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G90" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G91" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P91" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G92" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G93" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G94" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G95" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G96" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="P96" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G97" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="P97" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T97" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G98" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G99" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="7:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G101" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="T101" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G102" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="T102" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G103" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="T103" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G104" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="T104" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="105" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G105" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="T105" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="106" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G106" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="T106" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H108" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="T108" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H109" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H110" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="111" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H111" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="T111" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H112" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="T112" s="5" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -1783,8 +4397,57 @@
     <hyperlink ref="P17" r:id="rId15" display="mailto:wtcr@ufl.edu" xr:uid="{224170DC-ADC7-42FB-BC5E-395F072FA6D4}"/>
     <hyperlink ref="P18" r:id="rId16" display="https://www.researchgate.net/profile/Reza-Ghaderi-7" xr:uid="{62A72910-44FE-43C0-8426-1F8C2D49AA2E}"/>
     <hyperlink ref="P19" r:id="rId17" display="https://www.researchgate.net/profile/Reza-Ghaderi-7" xr:uid="{8D87B76F-1660-4358-B4DF-A0E73595627A}"/>
+    <hyperlink ref="T20" r:id="rId18" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{ADEA0D73-5032-4D63-A808-F0B4DD4FFE3F}"/>
+    <hyperlink ref="P20" r:id="rId19" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{E2AD70ED-D233-4C8C-B71A-2F0B7F3230C8}"/>
+    <hyperlink ref="T21" r:id="rId20" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{AAC954C0-9363-4BC7-B5E8-57944CFB56EC}"/>
+    <hyperlink ref="P21" r:id="rId21" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{E034EF3E-2AC3-49CA-B3AB-5EF02C569FED}"/>
+    <hyperlink ref="T22" r:id="rId22" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{14D1E933-9960-437D-AE89-5528CF334B20}"/>
+    <hyperlink ref="T23" r:id="rId23" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{196B4269-C225-4780-871E-9F38F87152B6}"/>
+    <hyperlink ref="T24" r:id="rId24" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{9ED0D89C-DA80-48B8-A4DC-7E2AA9C71ADE}"/>
+    <hyperlink ref="T25" r:id="rId25" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{D056EBD6-4B47-46C2-8C65-DA5B7DB6311E}"/>
+    <hyperlink ref="P22" r:id="rId26" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{FE5E3FF9-CF6F-4022-B8AC-2E71D262E24C}"/>
+    <hyperlink ref="P23" r:id="rId27" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{E04B16A6-FD8D-4860-AF25-7E834CA1CABF}"/>
+    <hyperlink ref="P24" r:id="rId28" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{B3D73C36-3115-4022-A6EC-E301E13FDE6A}"/>
+    <hyperlink ref="P25" r:id="rId29" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{31F263C7-7536-4767-BBE0-EBB649DAB73B}"/>
+    <hyperlink ref="T26" r:id="rId30" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{7D38E50F-E9BB-4992-A519-99339C7C7415}"/>
+    <hyperlink ref="P26" r:id="rId31" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{4F951B63-2AFE-452A-96A0-E6E40F839EBB}"/>
+    <hyperlink ref="P27:P28" r:id="rId32" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{CF689981-9FFC-47AB-82A2-3AB5BB63E181}"/>
+    <hyperlink ref="T27:T28" r:id="rId33" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{1B9EA773-BB1C-42E3-853B-544865BC9A43}"/>
+    <hyperlink ref="P29" r:id="rId34" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{9973FD2A-2AFA-44C2-8EDB-FA2737200AE5}"/>
+    <hyperlink ref="T29" r:id="rId35" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{EBD20015-13AB-42E2-8CB5-FBD9D7ED80E7}"/>
+    <hyperlink ref="P30" r:id="rId36" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{B7C2FAD4-7BE2-4A4C-BDFE-C959A10E0640}"/>
+    <hyperlink ref="T30" r:id="rId37" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{AA452520-4FA2-4D28-B3F4-1F8F80EACDD2}"/>
+    <hyperlink ref="P31" r:id="rId38" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{2D6DB680-396D-461E-8444-0342AA7AF751}"/>
+    <hyperlink ref="P32" r:id="rId39" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{6841FC70-ABC0-465C-B542-3F24F9CE2C14}"/>
+    <hyperlink ref="T31" r:id="rId40" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{F8CA44D8-97E1-47C8-B57F-D92E71D7CA6F}"/>
+    <hyperlink ref="T32" r:id="rId41" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{16D3C5F3-2948-4991-8D2E-E9D6E66A3533}"/>
+    <hyperlink ref="P33" r:id="rId42" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{76CE471C-0D98-41AD-86FC-C04012604ACD}"/>
+    <hyperlink ref="P34" r:id="rId43" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{2F12CC04-EBE2-4347-8D73-A3C2AFCCD0FF}"/>
+    <hyperlink ref="P35" r:id="rId44" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{536733FE-FF48-46EC-A390-53888F639365}"/>
+    <hyperlink ref="P36" r:id="rId45" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{EEC34A6B-CFE1-4511-B15B-724B388B2328}"/>
+    <hyperlink ref="P37" r:id="rId46" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{4D82E84F-4F79-4702-9E4D-A8630842BDBD}"/>
+    <hyperlink ref="P38" r:id="rId47" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{2826EB01-559C-414F-982D-EFBEC00B2A4E}"/>
+    <hyperlink ref="P39" r:id="rId48" display="https://www.semanticscholar.org/author/H.-Landman/1984983" xr:uid="{D8AD17E2-F4EC-4955-BC3B-E64F4C03980B}"/>
+    <hyperlink ref="T33" r:id="rId49" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{DAF231AF-28E1-492F-8CE6-E9A05EBC9CB6}"/>
+    <hyperlink ref="T34" r:id="rId50" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{5498BC68-5A47-4007-BA0B-D097812F6156}"/>
+    <hyperlink ref="T35" r:id="rId51" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{F0772791-5DBF-4C0B-B0AD-F1FEAD0D66F2}"/>
+    <hyperlink ref="T36" r:id="rId52" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{85515EF4-6138-46A0-8D6A-FA26F6C8198E}"/>
+    <hyperlink ref="T37" r:id="rId53" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{4EEA49C0-B5FC-4F1D-B820-2838A7C7CAB9}"/>
+    <hyperlink ref="T38" r:id="rId54" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{C1FABB3E-FF8F-43C2-B8FC-CA3E21EDD8E8}"/>
+    <hyperlink ref="T39" r:id="rId55" display="_@inproceedings{Landman2011TaxonomicRO,_x000a_  title={Taxonomic review of the genus Histotylenchus Siddiqi, 1971 (Nematoda: Belonolaimidae) in South Africa},_x000a_  author={H. Landman},_x000a_  year={2011}_x000a_}" xr:uid="{6D66C474-1A52-4CE6-B821-996ADCBB65F8}"/>
+    <hyperlink ref="P40" r:id="rId56" display="https://www.researchgate.net/profile/Loukrakpam-Chanu" xr:uid="{533C2199-C641-4D45-BA27-C36826DAD2AF}"/>
+    <hyperlink ref="P41" r:id="rId57" display="https://www.researchgate.net/profile/Loukrakpam-Chanu" xr:uid="{1B92D802-8204-468B-A89B-52BCC7F2CE92}"/>
+    <hyperlink ref="T44" r:id="rId58" display="https://doi.org/10.5281/zenodo.3716682" xr:uid="{7D5FD7A8-CDB2-4B88-A88F-C90D58900C36}"/>
+    <hyperlink ref="T43" r:id="rId59" display="https://doi.org/10.5281/zenodo.3716682" xr:uid="{87F4FBF3-AE08-471B-9C2D-D55D19F41147}"/>
+    <hyperlink ref="K72" r:id="rId60" display="mailto:rsiddiqi@dialstart.net" xr:uid="{5E82B693-A554-4CFA-9876-356E64D0F9A8}"/>
+    <hyperlink ref="K74" r:id="rId61" display="mailto:nssekora@ufl.edu" xr:uid="{CD1E1A6F-0829-406E-A193-379292E6EA29}"/>
+    <hyperlink ref="P83" r:id="rId62" display="https://www.researchgate.net/profile/Wasim-Ahmad-9" xr:uid="{D770E4CA-A804-41BA-9D93-C1E4DEE28AC1}"/>
+    <hyperlink ref="P82" r:id="rId63" display="https://www.researchgate.net/profile/Wasim-Ahmad-9" xr:uid="{E5526074-5BD2-40E1-AAF6-6DF00E03599F}"/>
+    <hyperlink ref="P86" r:id="rId64" display="https://www.researchgate.net/profile/Jerry-Akanwari" xr:uid="{7FCC2246-FDFD-4334-90F5-A86D753D272C}"/>
+    <hyperlink ref="P85" r:id="rId65" display="https://www.researchgate.net/profile/Jerry-Akanwari" xr:uid="{022B949C-AC89-42AF-88B4-193F886FA03C}"/>
+    <hyperlink ref="P87" r:id="rId66" display="https://www.researchgate.net/profile/Sergei-Subbotin" xr:uid="{B8BD1C6F-CC3C-4465-ABB0-3AF0A42AA08B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>